--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H2">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I2">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J2">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>15.41222150149622</v>
+        <v>0.306432451613889</v>
       </c>
       <c r="R2">
-        <v>138.709993513466</v>
+        <v>2.757892064525</v>
       </c>
       <c r="S2">
-        <v>0.1402286596595404</v>
+        <v>0.006804596513116582</v>
       </c>
       <c r="T2">
-        <v>0.1402286596595404</v>
+        <v>0.006804596513116582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H3">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I3">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J3">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>15.036398951302</v>
+        <v>0.4121757470350001</v>
       </c>
       <c r="R3">
-        <v>135.327590561718</v>
+        <v>3.709581723315</v>
       </c>
       <c r="S3">
-        <v>0.1368092244743888</v>
+        <v>0.00915271746283435</v>
       </c>
       <c r="T3">
-        <v>0.1368092244743889</v>
+        <v>0.00915271746283435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H4">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I4">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J4">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>10.36333180337955</v>
+        <v>0.2335209514227778</v>
       </c>
       <c r="R4">
-        <v>93.26998623041598</v>
+        <v>2.101688562805</v>
       </c>
       <c r="S4">
-        <v>0.09429115252813634</v>
+        <v>0.005185533853944727</v>
       </c>
       <c r="T4">
-        <v>0.09429115252813636</v>
+        <v>0.005185533853944726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
         <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N5">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P5">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q5">
-        <v>17.36460195045722</v>
+        <v>12.59492983756389</v>
       </c>
       <c r="R5">
-        <v>156.281417554115</v>
+        <v>113.354368538075</v>
       </c>
       <c r="S5">
-        <v>0.1579924644086945</v>
+        <v>0.2796812648407854</v>
       </c>
       <c r="T5">
-        <v>0.1579924644086945</v>
+        <v>0.2796812648407854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
         <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>119.145069</v>
       </c>
       <c r="O6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P6">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q6">
         <v>16.941171169405</v>
@@ -818,10 +818,10 @@
         <v>152.470540524645</v>
       </c>
       <c r="S6">
-        <v>0.1541398639980541</v>
+        <v>0.3761932969576499</v>
       </c>
       <c r="T6">
-        <v>0.1541398639980541</v>
+        <v>0.3761932969576499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H7">
         <v>1.279705</v>
       </c>
       <c r="I7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N7">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P7">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q7">
-        <v>11.67613193391556</v>
+        <v>9.598134868812776</v>
       </c>
       <c r="R7">
-        <v>105.08518740524</v>
+        <v>86.38321381931499</v>
       </c>
       <c r="S7">
-        <v>0.1062357124144617</v>
+        <v>0.2131348514714095</v>
       </c>
       <c r="T7">
-        <v>0.1062357124144618</v>
+        <v>0.2131348514714095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H8">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N8">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P8">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q8">
-        <v>8.728741639424999</v>
+        <v>1.592070860381111</v>
       </c>
       <c r="R8">
-        <v>78.55867475482499</v>
+        <v>14.32863774343</v>
       </c>
       <c r="S8">
-        <v>0.07941877428196571</v>
+        <v>0.03535330467816811</v>
       </c>
       <c r="T8">
-        <v>0.07941877428196571</v>
+        <v>0.03535330467816811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H9">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>119.145069</v>
       </c>
       <c r="O9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P9">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q9">
-        <v>8.515893806774999</v>
+        <v>2.141460516842</v>
       </c>
       <c r="R9">
-        <v>76.64304426097499</v>
+        <v>19.273144651578</v>
       </c>
       <c r="S9">
-        <v>0.07748217051066318</v>
+        <v>0.04755297517979797</v>
       </c>
       <c r="T9">
-        <v>0.0774821705106632</v>
+        <v>0.04755297517979797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H10">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N10">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P10">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q10">
-        <v>5.869293133799999</v>
+        <v>1.213258909396222</v>
       </c>
       <c r="R10">
-        <v>52.82363820419999</v>
+        <v>10.919330184566</v>
       </c>
       <c r="S10">
-        <v>0.05340197772409489</v>
+        <v>0.02694145904229345</v>
       </c>
       <c r="T10">
-        <v>0.0534019777240949</v>
+        <v>0.02694145904229345</v>
       </c>
     </row>
   </sheetData>
